--- a/tools/csv/dzfs_sessions.xlsx
+++ b/tools/csv/dzfs_sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donghao/Documents/code/buddha/inflaton/tools/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7AF66-10D0-074A-AC37-ABF748261BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDB7A61-3158-E14F-AA98-CCC0B467EA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41760" yWindow="760" windowWidth="24780" windowHeight="19500" activeTab="1" xr2:uid="{84032EBB-DD8F-B64E-B5EE-F9BAF3A27392}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="24780" windowHeight="19500" xr2:uid="{84032EBB-DD8F-B64E-B5EE-F9BAF3A27392}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>index</t>
   </si>
@@ -587,6 +587,66 @@
   </si>
   <si>
     <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/videoseries?list=PL03C51E1F02AE1865" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>朝聖之旅 1/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 2/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 3/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 4/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 5/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 6/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 7/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 8/9</t>
+  </si>
+  <si>
+    <t>朝聖之旅 9/9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GaT9xyLWi_U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jf8KpXvZf8o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hg57jIqPHY8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UycpNMtwukA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JK3JNM_9FaU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NXEflIefUCQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yjsll4Axcmw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VNY4hHIYy7U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B-hZwjtfzGQ</t>
+  </si>
+  <si>
+    <t>朝聖之旅</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed//videoseries?list=PLxVOAdWjnQuEnkTAuP7v7WWEXdg6bMcmF" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00BAE7D-261B-0040-9E66-0A5190B3D668}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,6 +1128,17 @@
         <v>95</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1075,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6B715-F446-7C41-8628-EE7A7E37AB53}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1401,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1341,7 +1412,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2048,6 +2119,105 @@
       </c>
       <c r="C88" s="4" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
